--- a/data/trans_camb/P1423-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,84</t>
+          <t>-0,45; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,33</t>
+          <t>-1,18; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 9,56</t>
+          <t>2,96; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 16,77</t>
+          <t>3,57; 9,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,41</t>
+          <t>2,18; 8,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,93</t>
+          <t>1,35; 6,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 5,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 4,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 6,52</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>226,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>113,53%</t>
+          <t>100,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,8%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>170,64%</t>
+          <t>61,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>88,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108,03%</t>
         </is>
       </c>
     </row>
@@ -715,39 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; 182,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,18; 129,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 249,47</t>
+          <t>83,05; 481,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 481,78</t>
+          <t>43,57; 181,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 337,51</t>
+          <t>28,44; 158,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 552,72</t>
+          <t>17,52; 126,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37,55; 155,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 124,22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53,12; 173,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,85</t>
+          <t>-0,17; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,4</t>
+          <t>-2,13; 0,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,2</t>
+          <t>-1,43; 2,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,12</t>
+          <t>0,99; 6,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,33</t>
+          <t>-1,38; 3,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,17</t>
+          <t>1,16; 5,95</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 4,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 3,44</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>-24,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>116,84%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>45,46%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
         </is>
       </c>
     </row>
@@ -871,39 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 150,87</t>
+          <t>-5,37; 171,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,01; 86,45</t>
+          <t>-57,68; 30,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,14; 220,35</t>
+          <t>-39,62; 115,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 159,39</t>
+          <t>9,87; 97,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,07; 161,59</t>
+          <t>-15,27; 56,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 114,14</t>
+          <t>12,1; 93,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13,24; 93,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; 42,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; 73,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,56</t>
+          <t>-2,1; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,62</t>
+          <t>-1,72; 2,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,19</t>
+          <t>0,13; 4,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,76</t>
+          <t>-1,23; 4,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,28</t>
+          <t>-1,81; 4,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,85</t>
+          <t>-2,97; 6,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 2,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 2,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 4,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,74%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>32,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47,97%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 171,26</t>
+          <t>-50,22; 69,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 30,57</t>
+          <t>-39,5; 80,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 97,15</t>
+          <t>-0,21; 182,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 56,62</t>
+          <t>-12,59; 72,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 93,21</t>
+          <t>-20,38; 67,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 42,08</t>
+          <t>-30,72; 100,42</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 57,64</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 51,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 103,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,88</t>
+          <t>-0,75; 3,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,13</t>
+          <t>-0,78; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,85</t>
+          <t>1,46; 5,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,22</t>
+          <t>0,82; 6,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,81</t>
+          <t>0,42; 5,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,58</t>
+          <t>1,01; 6,34</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 4,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,67</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 5,42</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>49,52%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>40,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>35,98%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>63,59%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 69,67</t>
+          <t>-19,65; 109,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 80,18</t>
+          <t>-18,84; 102,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 72,1</t>
+          <t>31,34; 201,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 67,02</t>
+          <t>8,91; 91,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 57,64</t>
+          <t>2,57; 87,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 51,82</t>
+          <t>10,01; 89,38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 78,93</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 71,89</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 105,6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,11</t>
+          <t>0,1; 2,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,85</t>
+          <t>-0,74; 1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,11</t>
+          <t>1,11; 3,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,86</t>
+          <t>2,49; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,1</t>
+          <t>1,12; 3,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,67</t>
+          <t>1,49; 5,03</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 3,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,23</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 4,08</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>45,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58,03%</t>
         </is>
       </c>
     </row>
@@ -1339,209 +1655,67 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 109,82</t>
+          <t>0,43; 74,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 102,28</t>
+          <t>-21,42; 38,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,91; 91,02</t>
+          <t>33,96; 134,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,57; 87,71</t>
+          <t>30,21; 74,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,73; 78,93</t>
+          <t>13,69; 57,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,91; 71,89</t>
+          <t>18,72; 72,07</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 67,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 45,16</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 82,55</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 2,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,01</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 5,19</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 3,99</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 3,36</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 2,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>34,58%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>49,94%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>33,92%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>45,8%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 74,85</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 38,12</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>30,21; 74,69</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>13,69; 57,96</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>28,41; 67,65</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 45,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P1423-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,15</t>
+          <t>-0,34; 3,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,01</t>
+          <t>-1,07; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,01</t>
+          <t>3,13; 7,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,55</t>
+          <t>3,59; 9,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,35</t>
+          <t>2,32; 8,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,65</t>
+          <t>0,9; 6,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,74</t>
+          <t>2,03; 5,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,58</t>
+          <t>1,16; 4,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,52</t>
+          <t>2,69; 6,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 182,44</t>
+          <t>-14,2; 198,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 129,06</t>
+          <t>-37,25; 131,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,05; 481,39</t>
+          <t>90,79; 492,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,57; 181,57</t>
+          <t>42,68; 173,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 158,05</t>
+          <t>27,77; 155,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 126,92</t>
+          <t>14,32; 122,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,55; 155,59</t>
+          <t>39,28; 156,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,25; 124,22</t>
+          <t>20,3; 125,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 173,26</t>
+          <t>51,62; 176,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,56</t>
+          <t>-0,01; 3,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,62</t>
+          <t>-2,15; 0,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,68</t>
+          <t>-1,25; 2,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,19</t>
+          <t>0,98; 6,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,76</t>
+          <t>-1,23; 4,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,95</t>
+          <t>1,04; 6,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,28</t>
+          <t>1,08; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,85</t>
+          <t>-1,22; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,44</t>
+          <t>-0,96; 3,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 171,26</t>
+          <t>-3,82; 163,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 30,57</t>
+          <t>-57,41; 29,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 115,26</t>
+          <t>-35,48; 113,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,87; 97,15</t>
+          <t>10,38; 102,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 56,62</t>
+          <t>-14,48; 63,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 93,61</t>
+          <t>10,29; 92,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 93,21</t>
+          <t>17,18; 95,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 42,08</t>
+          <t>-18,81; 37,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 73,07</t>
+          <t>-14,84; 70,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,88</t>
+          <t>-2,38; 1,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,13</t>
+          <t>-1,96; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,92</t>
+          <t>0,33; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,85</t>
+          <t>-1,15; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,22</t>
+          <t>-1,8; 4,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,99</t>
+          <t>-3,32; 6,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,81</t>
+          <t>-0,85; 2,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,58</t>
+          <t>-1,01; 2,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,97</t>
+          <t>-0,82; 4,89</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 69,67</t>
+          <t>-53,49; 68,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 80,18</t>
+          <t>-43,41; 78,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 182,18</t>
+          <t>2,43; 180,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 72,1</t>
+          <t>-12,6; 76,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 67,02</t>
+          <t>-19,9; 63,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 100,42</t>
+          <t>-32,02; 96,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 57,64</t>
+          <t>-14,05; 56,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 51,82</t>
+          <t>-15,77; 53,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 103,21</t>
+          <t>-10,55; 94,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,11</t>
+          <t>-0,72; 3,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,85</t>
+          <t>-0,81; 2,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,39</t>
+          <t>1,31; 5,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,11</t>
+          <t>0,82; 5,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,86</t>
+          <t>0,52; 5,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,34</t>
+          <t>0,88; 6,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,1</t>
+          <t>0,82; 3,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,67</t>
+          <t>0,34; 3,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,42</t>
+          <t>1,95; 5,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 109,82</t>
+          <t>-17,33; 113,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 102,28</t>
+          <t>-19,66; 100,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,34; 201,72</t>
+          <t>26,96; 184,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 91,02</t>
+          <t>8,1; 86,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 87,71</t>
+          <t>5,38; 85,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,01; 89,38</t>
+          <t>10,26; 95,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,73; 78,93</t>
+          <t>11,58; 78,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,91; 71,89</t>
+          <t>4,97; 78,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,24; 105,6</t>
+          <t>28,87; 103,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,01</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,01</t>
+          <t>-0,66; 0,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,63</t>
+          <t>1,32; 3,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,19</t>
+          <t>2,29; 5,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,99</t>
+          <t>1,23; 3,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,03</t>
+          <t>1,32; 5,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,36</t>
+          <t>1,63; 3,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,23</t>
+          <t>0,53; 2,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,08</t>
+          <t>1,93; 4,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,43; 74,85</t>
+          <t>5,29; 74,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 38,12</t>
+          <t>-19,24; 36,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>33,96; 134,14</t>
+          <t>39,35; 137,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30,21; 74,69</t>
+          <t>27,61; 73,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,69; 57,96</t>
+          <t>13,9; 56,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>18,72; 72,07</t>
+          <t>17,09; 69,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,41; 67,65</t>
+          <t>27,76; 65,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,0; 45,16</t>
+          <t>9,31; 44,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>34,58; 82,55</t>
+          <t>33,4; 81,69</t>
         </is>
       </c>
     </row>
